--- a/courts/InvestigationSupervisionActivity_comparison_of_reports_2024-04-10.xlsx
+++ b/courts/InvestigationSupervisionActivity_comparison_of_reports_2024-04-10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam.s.cohen\Desktop\projects\p20_probation_length_JDC\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8694BF-F07C-45F2-9F4B-8C352260BC89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F48BC37-DCA9-4D01-A533-50B2A7C25B26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6180" xr2:uid="{F4A501FE-49AD-4FE6-96BB-1D823777A4F0}"/>
   </bookViews>
@@ -27,16 +27,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>report for 2021</t>
-  </si>
-  <si>
-    <t>report for 2023</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>report for 2022</t>
+    <t>report for CY 2021</t>
+  </si>
+  <si>
+    <t>report for CY 2022</t>
+  </si>
+  <si>
+    <t>report for CY 2023</t>
   </si>
 </sst>
 </file>
@@ -401,12 +401,12 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -417,12 +417,12 @@
         <v>45383</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>4800</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>5810</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>4130</v>
